--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -353,10 +353,16 @@
     <t>Dati della trascrizione</t>
   </si>
   <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
     <t>Nuovo cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
   </si>
   <si>
     <t>nuovoCognome</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2172,7 +2178,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>114</v>
@@ -2221,6 +2227,26 @@
         <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -448,6 +454,7 @@
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,45 +476,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -529,1725 +545,1986 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.1</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.1</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -546,1985 +549,1985 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -351,6 +357,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -905,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -997,7 +1006,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1106,19 +1115,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1129,19 +1138,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1152,19 +1161,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1175,19 +1184,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1198,19 +1207,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1221,19 +1230,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1244,19 +1253,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1267,19 +1276,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1290,19 +1299,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1313,19 +1322,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1336,19 +1345,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1359,19 +1368,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1382,7 +1391,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>78</v>
@@ -1391,10 +1400,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1405,7 +1414,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>79</v>
@@ -1414,10 +1423,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1428,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1474,7 +1483,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
@@ -1483,10 +1492,10 @@
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1497,7 +1506,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>83</v>
@@ -1506,10 +1515,10 @@
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1520,7 +1529,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
@@ -1529,10 +1538,10 @@
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,7 +1805,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>74</v>
@@ -1805,10 +1814,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1828,10 +1837,10 @@
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,16 +2130,16 @@
         <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,16 +2153,16 @@
         <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,16 +2176,16 @@
         <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2463,10 +2472,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2475,7 +2484,7 @@
         <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2486,10 +2495,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2498,7 +2507,7 @@
         <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2509,10 +2518,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2521,12 +2530,104 @@
         <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -2409,7 +2409,7 @@
         <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>97</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -291,6 +315,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -454,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -464,7 +494,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1138,19 +1168,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1161,19 +1191,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1184,19 +1214,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1207,19 +1237,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1230,19 +1260,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1253,19 +1283,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1276,19 +1306,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1299,19 +1329,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1352,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,19 +1375,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1368,19 +1398,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1421,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1444,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1467,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,7 +1835,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>74</v>
@@ -1814,10 +1844,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1966,7 +1996,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
@@ -1975,10 +2005,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,7 +2019,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -1998,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,7 +2042,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>82</v>
@@ -2021,10 +2051,10 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,7 +2065,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>83</v>
@@ -2044,10 +2074,10 @@
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,7 +2088,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
@@ -2067,10 +2097,10 @@
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,7 +2111,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
@@ -2090,10 +2120,10 @@
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2387,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2479,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2525,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,24 +2640,346 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -254,6 +254,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -327,6 +330,18 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Madre biologica</t>
+  </si>
+  <si>
+    <t>evento.madreBiologica</t>
+  </si>
+  <si>
+    <t>Padre biologico</t>
+  </si>
+  <si>
+    <t>evento.padreBiologico</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -484,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1278,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -1301,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -1324,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -1355,7 +1370,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1370,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -1378,7 +1393,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1393,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -1401,7 +1416,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
@@ -1416,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
@@ -1439,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -1447,7 +1462,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
@@ -1462,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1470,7 +1485,7 @@
         <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
@@ -1485,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1508,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1531,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1531,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -1539,7 +1554,7 @@
         <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1554,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -1562,7 +1577,7 @@
         <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1577,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1600,7 @@
         <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1600,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -1608,7 +1623,7 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
@@ -1623,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -1631,7 +1646,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
@@ -1646,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -1654,7 +1669,7 @@
         <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
@@ -1669,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1677,7 +1692,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -1692,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -1700,7 +1715,7 @@
         <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
@@ -1715,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1723,7 +1738,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1732,13 +1747,13 @@
         <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -1746,7 +1761,7 @@
         <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1755,13 +1770,13 @@
         <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -1769,7 +1784,7 @@
         <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1778,13 +1793,13 @@
         <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -1807,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -1830,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1853,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -1876,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -1884,7 +1899,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
@@ -1893,18 +1908,18 @@
         <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
@@ -1913,7 +1928,7 @@
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>29</v>
@@ -1922,12 +1937,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>30</v>
@@ -1936,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>31</v>
@@ -1945,12 +1960,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
@@ -1959,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>35</v>
@@ -1968,12 +1983,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>36</v>
@@ -1982,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>37</v>
@@ -1991,21 +2006,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>39</v>
@@ -2014,21 +2029,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>41</v>
@@ -2037,21 +2052,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>43</v>
@@ -2060,21 +2075,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>45</v>
@@ -2083,21 +2098,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
@@ -2106,21 +2121,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2129,12 +2144,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
@@ -2143,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2152,21 +2167,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2175,21 +2190,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2198,21 +2213,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2221,21 +2236,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2244,21 +2259,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2267,21 +2282,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -2290,21 +2305,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
@@ -2313,21 +2328,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2336,21 +2351,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
@@ -2359,81 +2374,81 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>70</v>
@@ -2442,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>71</v>
@@ -2451,12 +2466,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>72</v>
@@ -2465,7 +2480,7 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>73</v>
@@ -2474,12 +2489,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>74</v>
@@ -2488,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>75</v>
@@ -2497,12 +2512,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>76</v>
@@ -2511,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>77</v>
@@ -2520,61 +2535,61 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2583,21 +2598,21 @@
         <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2606,21 +2621,21 @@
         <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2629,21 +2644,21 @@
         <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2652,44 +2667,44 @@
         <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
@@ -2698,21 +2713,21 @@
         <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
@@ -2721,21 +2736,21 @@
         <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2744,21 +2759,21 @@
         <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
@@ -2767,219 +2782,1507 @@
         <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -275,10 +281,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -775,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
@@ -867,7 +870,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -982,7 +985,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1074,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1275,191 +1278,191 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -1468,21 +1471,21 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
@@ -1491,1617 +1494,1617 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>71</v>
@@ -3110,875 +3113,875 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3989,19 +3992,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4012,19 +4015,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4035,19 +4038,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4058,19 +4061,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4081,19 +4084,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4104,19 +4107,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4127,19 +4130,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4150,19 +4153,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4173,19 +4176,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4196,19 +4199,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4219,19 +4222,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4242,19 +4245,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4265,24 +4268,139 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1054,7 +1060,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1077,7 +1083,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1301,375 +1307,375 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>92</v>
@@ -1678,21 +1684,21 @@
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>93</v>
@@ -1701,21 +1707,21 @@
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>94</v>
@@ -1724,21 +1730,21 @@
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>95</v>
@@ -1747,21 +1753,21 @@
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>96</v>
@@ -1770,412 +1776,412 @@
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
@@ -2184,21 +2190,21 @@
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>88</v>
@@ -2207,113 +2213,113 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>91</v>
@@ -2322,315 +2328,315 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
@@ -2638,7 +2644,7 @@
         <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
@@ -2647,13 +2653,13 @@
         <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
@@ -2661,22 +2667,22 @@
         <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
@@ -2684,7 +2690,7 @@
         <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
@@ -2693,510 +2699,510 @@
         <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>73</v>
@@ -3205,99 +3211,99 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
@@ -3305,7 +3311,7 @@
         <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
@@ -3314,13 +3320,13 @@
         <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
@@ -3328,22 +3334,22 @@
         <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
@@ -3351,7 +3357,7 @@
         <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
@@ -3360,13 +3366,13 @@
         <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
@@ -3374,588 +3380,588 @@
         <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>104</v>
@@ -3964,7 +3970,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
@@ -3972,22 +3978,22 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152">
@@ -3995,22 +4001,22 @@
         <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
@@ -4018,22 +4024,22 @@
         <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
@@ -4041,22 +4047,22 @@
         <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155">
@@ -4064,39 +4070,39 @@
         <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4113,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4130,19 +4136,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4159,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4176,19 +4182,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4199,19 +4205,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4222,19 +4228,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4245,19 +4251,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4268,19 +4274,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4291,19 +4297,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4317,16 +4323,16 @@
         <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4340,16 +4346,16 @@
         <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4363,16 +4369,16 @@
         <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4386,21 +4392,136 @@
         <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="B174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1655,7 +1661,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
@@ -1664,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,7 +1684,7 @@
         <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
@@ -1687,7 +1693,7 @@
         <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,7 +1707,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -1710,7 +1716,7 @@
         <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,7 +1730,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
@@ -1733,7 +1739,7 @@
         <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,7 +1753,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
@@ -1756,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,7 +1776,7 @@
         <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -1779,7 +1785,7 @@
         <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
@@ -1802,7 +1808,7 @@
         <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,7 +1822,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -1825,7 +1831,7 @@
         <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,16 +1845,16 @@
         <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1908,16 +1914,16 @@
         <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,7 +1937,7 @@
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -1940,7 +1946,7 @@
         <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,7 +1960,7 @@
         <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
@@ -1963,7 +1969,7 @@
         <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1983,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
@@ -1986,7 +1992,7 @@
         <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,7 +2006,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -2009,7 +2015,7 @@
         <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,7 +2371,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>92</v>
@@ -2374,10 +2380,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,7 +2417,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>94</v>
@@ -2420,10 +2426,10 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>95</v>
@@ -2443,10 +2449,10 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>96</v>
@@ -2466,10 +2472,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>97</v>
@@ -2489,10 +2495,10 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>98</v>
@@ -2512,10 +2518,10 @@
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,7 +2719,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
@@ -2722,7 +2728,7 @@
         <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,16 +2742,16 @@
         <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,19 +3291,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3314,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3354,19 +3360,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3377,19 +3383,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3403,7 +3409,7 @@
         <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
@@ -3412,7 +3418,7 @@
         <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3426,16 +3432,16 @@
         <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,7 +3455,7 @@
         <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
@@ -3458,7 +3464,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3492,19 +3498,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3515,19 +3521,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3538,19 +3544,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3561,19 +3567,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3584,19 +3590,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3607,19 +3613,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3630,19 +3636,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3653,19 +3659,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3676,19 +3682,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3699,19 +3705,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3722,19 +3728,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3745,19 +3751,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3768,19 +3774,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3791,19 +3797,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3814,19 +3820,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3837,19 +3843,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3860,19 +3866,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3883,19 +3889,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3906,19 +3912,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3929,19 +3935,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3952,19 +3958,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3975,19 +3981,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3998,19 +4004,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4021,19 +4027,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4044,19 +4050,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4067,19 +4073,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4093,22 +4099,22 @@
         <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
@@ -4116,22 +4122,22 @@
         <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
@@ -4139,22 +4145,22 @@
         <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
@@ -4162,39 +4168,39 @@
         <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4205,19 +4211,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4228,19 +4234,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4251,19 +4257,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4274,19 +4280,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4297,19 +4303,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4320,19 +4326,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4343,19 +4349,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4366,19 +4372,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4389,19 +4395,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4412,19 +4418,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4438,16 +4444,16 @@
         <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4461,16 +4467,16 @@
         <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4484,16 +4490,16 @@
         <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4507,21 +4513,113 @@
         <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="B178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -420,6 +420,78 @@
   </si>
   <si>
     <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -514,14 +586,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -4421,22 +4493,22 @@
         <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
@@ -4444,22 +4516,22 @@
         <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
@@ -4467,22 +4539,22 @@
         <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173">
@@ -4490,22 +4562,22 @@
         <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174">
@@ -4513,113 +4585,389 @@
         <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -586,14 +592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1408,559 +1414,559 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
@@ -1969,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>104</v>
@@ -1978,12 +1984,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
@@ -1992,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>106</v>
@@ -2001,679 +2007,679 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
@@ -2682,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>104</v>
@@ -2691,12 +2697,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>105</v>
@@ -2705,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>106</v>
@@ -2714,122 +2720,122 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
@@ -2837,7 +2843,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2846,547 +2852,547 @@
         <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -3395,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>104</v>
@@ -3404,12 +3410,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>105</v>
@@ -3418,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>106</v>
@@ -3427,122 +3433,122 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129">
@@ -3550,7 +3556,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
@@ -3559,547 +3565,547 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>103</v>
@@ -4108,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>104</v>
@@ -4117,12 +4123,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
@@ -4131,7 +4137,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>106</v>
@@ -4140,122 +4146,122 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
@@ -4263,36 +4269,36 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>120</v>
@@ -4306,7 +4312,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>121</v>
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>122</v>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>123</v>
@@ -4338,7 +4344,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>124</v>
@@ -4352,7 +4358,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>125</v>
@@ -4361,7 +4367,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>126</v>
@@ -4375,16 +4381,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>128</v>
@@ -4398,7 +4404,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>129</v>
@@ -4407,7 +4413,7 @@
         <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>130</v>
@@ -4421,7 +4427,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>131</v>
@@ -4430,7 +4436,7 @@
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>132</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>133</v>
@@ -4453,7 +4459,7 @@
         <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>134</v>
@@ -4467,19 +4473,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4490,39 +4496,39 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>141</v>
@@ -4531,12 +4537,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>142</v>
@@ -4545,7 +4551,7 @@
         <v>27</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>143</v>
@@ -4554,12 +4560,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>144</v>
@@ -4568,7 +4574,7 @@
         <v>27</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>145</v>
@@ -4577,12 +4583,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>146</v>
@@ -4591,7 +4597,7 @@
         <v>27</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>147</v>
@@ -4600,12 +4606,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>148</v>
@@ -4614,44 +4620,44 @@
         <v>27</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>151</v>
@@ -4660,44 +4666,44 @@
         <v>27</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>154</v>
@@ -4706,7 +4712,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>155</v>
@@ -4715,12 +4721,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>156</v>
@@ -4729,7 +4735,7 @@
         <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>157</v>
@@ -4738,12 +4744,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>158</v>
@@ -4752,7 +4758,7 @@
         <v>27</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>159</v>
@@ -4761,47 +4767,47 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4812,7 +4818,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>129</v>
@@ -4821,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>130</v>
@@ -4835,7 +4841,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>131</v>
@@ -4844,7 +4850,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>132</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>133</v>
@@ -4867,7 +4873,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>134</v>
@@ -4884,16 +4890,16 @@
         <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4904,16 +4910,16 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>167</v>
@@ -4927,16 +4933,16 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>169</v>
@@ -4950,7 +4956,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>170</v>
@@ -4959,7 +4965,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>171</v>
@@ -4968,6 +4974,29 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,12 +258,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -592,14 +586,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1414,559 +1408,559 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
@@ -1975,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>104</v>
@@ -1984,12 +1978,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
@@ -1998,7 +1992,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>106</v>
@@ -2007,679 +2001,679 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
@@ -2688,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>104</v>
@@ -2697,12 +2691,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>105</v>
@@ -2711,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>106</v>
@@ -2720,122 +2714,122 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
@@ -2843,7 +2837,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2852,547 +2846,547 @@
         <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -3401,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>104</v>
@@ -3410,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>105</v>
@@ -3424,7 +3418,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>106</v>
@@ -3433,122 +3427,122 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
@@ -3556,7 +3550,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
@@ -3565,547 +3559,547 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>103</v>
@@ -4114,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>104</v>
@@ -4123,12 +4117,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
@@ -4137,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>106</v>
@@ -4146,122 +4140,122 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160">
@@ -4269,36 +4263,36 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>120</v>
@@ -4312,7 +4306,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>121</v>
@@ -4321,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>122</v>
@@ -4335,7 +4329,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>123</v>
@@ -4344,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>124</v>
@@ -4358,7 +4352,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>125</v>
@@ -4367,7 +4361,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>126</v>
@@ -4381,16 +4375,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>128</v>
@@ -4404,7 +4398,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>129</v>
@@ -4413,7 +4407,7 @@
         <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>130</v>
@@ -4427,7 +4421,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>131</v>
@@ -4436,7 +4430,7 @@
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>132</v>
@@ -4450,7 +4444,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>133</v>
@@ -4459,7 +4453,7 @@
         <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>134</v>
@@ -4473,19 +4467,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4496,39 +4490,39 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>141</v>
@@ -4537,12 +4531,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>142</v>
@@ -4551,7 +4545,7 @@
         <v>27</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>143</v>
@@ -4560,12 +4554,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>144</v>
@@ -4574,7 +4568,7 @@
         <v>27</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>145</v>
@@ -4583,12 +4577,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>146</v>
@@ -4597,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>147</v>
@@ -4606,12 +4600,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>148</v>
@@ -4620,44 +4614,44 @@
         <v>27</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>151</v>
@@ -4666,44 +4660,44 @@
         <v>27</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>154</v>
@@ -4712,7 +4706,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>155</v>
@@ -4721,12 +4715,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>156</v>
@@ -4735,7 +4729,7 @@
         <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>157</v>
@@ -4744,12 +4738,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>158</v>
@@ -4758,7 +4752,7 @@
         <v>27</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>159</v>
@@ -4767,47 +4761,47 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4818,7 +4812,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>129</v>
@@ -4827,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>130</v>
@@ -4841,7 +4835,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>131</v>
@@ -4850,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>132</v>
@@ -4864,7 +4858,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>133</v>
@@ -4873,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>134</v>
@@ -4890,16 +4884,16 @@
         <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4910,16 +4904,16 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>167</v>
@@ -4933,16 +4927,16 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>169</v>
@@ -4956,7 +4950,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>170</v>
@@ -4965,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>171</v>
@@ -4974,29 +4968,6 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -592,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -914,7 +926,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -937,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -983,7 +995,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -1006,7 +1018,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1098,7 +1110,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -1121,7 +1133,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -1144,7 +1156,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1167,7 +1179,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1437,421 +1449,421 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>98</v>
@@ -1860,44 +1872,44 @@
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>100</v>
@@ -1906,21 +1918,21 @@
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>101</v>
@@ -1929,21 +1941,21 @@
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>102</v>
@@ -1952,527 +1964,527 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>94</v>
@@ -2481,44 +2493,44 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>96</v>
@@ -2527,329 +2539,329 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>110</v>
@@ -2858,2145 +2870,2375 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="C199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>18</v>
       </c>
     </row>
